--- a/aiurt-module-system/src/main/resources/templates/emergencyMaterials.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyMaterials.xlsx
@@ -7,16 +7,16 @@
     <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="应急物资导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="应急物资台账导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>应急物资导入模板</t>
+    <t>应急物资台账导入模板</t>
   </si>
   <si>
     <r>
@@ -27,7 +27,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>应急物资导入模板</t>
+      <t>应急物资台账导入模板</t>
     </r>
     <r>
       <rPr>
@@ -74,6 +74,9 @@
   <si>
     <t>联系电话</t>
   </si>
+  <si>
+    <t>备注</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -475,9 +478,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -485,9 +486,7 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -508,6 +507,34 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -615,7 +642,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,7 +672,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,28 +690,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,10 +720,10 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,12 +789,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1135,6 +1168,7 @@
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -1150,7 +1184,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="153" customHeight="1" spans="1:9">
+    <row r="2" ht="153" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1162,8 +1196,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1188,14 +1223,17 @@
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
